--- a/database/person.xlsx
+++ b/database/person.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,15 +459,19 @@
           <t>John Duke</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>230500.0</t>
+          <t>240500.0</t>
         </is>
       </c>
     </row>
@@ -580,17 +584,44 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>213000.0</t>
+          <t>238000.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>382190839201839201</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Manusia Orang</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10000.0</t>
         </is>
       </c>
     </row>
